--- a/data/pca/factorExposure/factorExposure_2016-08-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01267004542349166</v>
+        <v>0.01363970279851789</v>
       </c>
       <c r="C2">
-        <v>0.05460723683197383</v>
+        <v>0.04360519320150473</v>
       </c>
       <c r="D2">
-        <v>-0.037104188020748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06384852073911104</v>
+      </c>
+      <c r="E2">
+        <v>0.0587882615959621</v>
+      </c>
+      <c r="F2">
+        <v>0.07804946655855777</v>
+      </c>
+      <c r="G2">
+        <v>-0.03378639047156713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06635540272396193</v>
+        <v>0.03107286533076871</v>
       </c>
       <c r="C3">
-        <v>0.09574365265897641</v>
+        <v>0.08199094033483106</v>
       </c>
       <c r="D3">
-        <v>-0.09262551027273076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08940382469180062</v>
+      </c>
+      <c r="E3">
+        <v>0.06799967064183238</v>
+      </c>
+      <c r="F3">
+        <v>-0.0004312851580987245</v>
+      </c>
+      <c r="G3">
+        <v>0.03687890387871135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06804500393068497</v>
+        <v>0.0576223059448313</v>
       </c>
       <c r="C4">
-        <v>0.05882910876927908</v>
+        <v>0.06639460188127147</v>
       </c>
       <c r="D4">
-        <v>-0.02690694534434514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05889777455185647</v>
+      </c>
+      <c r="E4">
+        <v>0.05712601197843936</v>
+      </c>
+      <c r="F4">
+        <v>0.08491826287103348</v>
+      </c>
+      <c r="G4">
+        <v>0.03894294897984956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04306050134563192</v>
+        <v>0.03536255815075066</v>
       </c>
       <c r="C6">
-        <v>0.03696429007054824</v>
+        <v>0.03166206595472021</v>
       </c>
       <c r="D6">
-        <v>-0.02988158710399027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06472927561354244</v>
+      </c>
+      <c r="E6">
+        <v>0.06382598145838178</v>
+      </c>
+      <c r="F6">
+        <v>0.06733276300899445</v>
+      </c>
+      <c r="G6">
+        <v>0.02310013226620346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02222605805924733</v>
+        <v>0.01908206250281727</v>
       </c>
       <c r="C7">
-        <v>0.04428920488704127</v>
+        <v>0.03881734504319349</v>
       </c>
       <c r="D7">
-        <v>0.003089303303492932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03630751759233121</v>
+      </c>
+      <c r="E7">
+        <v>0.03833121828947004</v>
+      </c>
+      <c r="F7">
+        <v>0.1050680452419532</v>
+      </c>
+      <c r="G7">
+        <v>0.00850958312914574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003066899921930918</v>
+        <v>0.003245788078021679</v>
       </c>
       <c r="C8">
-        <v>0.02806483753564937</v>
+        <v>0.02937511365098228</v>
       </c>
       <c r="D8">
-        <v>-0.03131211187706502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03277476801759055</v>
+      </c>
+      <c r="E8">
+        <v>0.04476859893482986</v>
+      </c>
+      <c r="F8">
+        <v>0.04656658221894265</v>
+      </c>
+      <c r="G8">
+        <v>0.01052395773884842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03770113728178429</v>
+        <v>0.03646280798732592</v>
       </c>
       <c r="C9">
-        <v>0.04328201613437816</v>
+        <v>0.05301381929245366</v>
       </c>
       <c r="D9">
-        <v>-0.01372575874784733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04290857641495755</v>
+      </c>
+      <c r="E9">
+        <v>0.04772618050229716</v>
+      </c>
+      <c r="F9">
+        <v>0.08954342314434587</v>
+      </c>
+      <c r="G9">
+        <v>0.02382028439821966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06709659645780892</v>
+        <v>0.09872940568603959</v>
       </c>
       <c r="C10">
-        <v>-0.1968325233256111</v>
+        <v>-0.1948256122305493</v>
       </c>
       <c r="D10">
-        <v>0.001148050564780956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.002296811306950592</v>
+      </c>
+      <c r="E10">
+        <v>0.04621634636266197</v>
+      </c>
+      <c r="F10">
+        <v>0.040420206601652</v>
+      </c>
+      <c r="G10">
+        <v>0.009780799936863782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04290589348637728</v>
+        <v>0.03647878867717048</v>
       </c>
       <c r="C11">
-        <v>0.05366831092676971</v>
+        <v>0.05145393562585737</v>
       </c>
       <c r="D11">
-        <v>-0.009294051028442912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03324313357775659</v>
+      </c>
+      <c r="E11">
+        <v>0.008991945294527846</v>
+      </c>
+      <c r="F11">
+        <v>0.06555809531387648</v>
+      </c>
+      <c r="G11">
+        <v>0.01578069553292625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04250633172320806</v>
+        <v>0.03733458697141492</v>
       </c>
       <c r="C12">
-        <v>0.04882382715044977</v>
+        <v>0.04753454482744264</v>
       </c>
       <c r="D12">
-        <v>-0.001518688720917311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02524115140610934</v>
+      </c>
+      <c r="E12">
+        <v>0.01757460037071159</v>
+      </c>
+      <c r="F12">
+        <v>0.06794760244314796</v>
+      </c>
+      <c r="G12">
+        <v>0.01270503442514281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01866002489765868</v>
+        <v>0.01224556042752325</v>
       </c>
       <c r="C13">
-        <v>0.04916431897870468</v>
+        <v>0.04337469184229541</v>
       </c>
       <c r="D13">
-        <v>-0.01970881070427117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06010805266828498</v>
+      </c>
+      <c r="E13">
+        <v>0.06889907663847766</v>
+      </c>
+      <c r="F13">
+        <v>0.1097786965770926</v>
+      </c>
+      <c r="G13">
+        <v>0.0205735528529671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009531942418554639</v>
+        <v>0.004971049705978982</v>
       </c>
       <c r="C14">
-        <v>0.03513571716973959</v>
+        <v>0.03260182501381345</v>
       </c>
       <c r="D14">
-        <v>0.01584968516586152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02487205252928942</v>
+      </c>
+      <c r="E14">
+        <v>0.03057693989201346</v>
+      </c>
+      <c r="F14">
+        <v>0.09672021870585359</v>
+      </c>
+      <c r="G14">
+        <v>-0.006297422785116737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006463943779657332</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005613431005768772</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006545147464866158</v>
+      </c>
+      <c r="E15">
+        <v>0.0003105707315475201</v>
+      </c>
+      <c r="F15">
+        <v>0.004807176338610383</v>
+      </c>
+      <c r="G15">
+        <v>0.0006525201822679397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03900342141252107</v>
+        <v>0.03393612335026652</v>
       </c>
       <c r="C16">
-        <v>0.04621356045580907</v>
+        <v>0.04535715700613984</v>
       </c>
       <c r="D16">
-        <v>-0.007185846585676257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02707258366646529</v>
+      </c>
+      <c r="E16">
+        <v>0.02316340620636063</v>
+      </c>
+      <c r="F16">
+        <v>0.06980005743812628</v>
+      </c>
+      <c r="G16">
+        <v>0.002243297074431679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02881073176122132</v>
+        <v>0.01665218080241117</v>
       </c>
       <c r="C19">
-        <v>0.06317237328087615</v>
+        <v>0.05123781685278096</v>
       </c>
       <c r="D19">
-        <v>-0.0752453953104652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09203773355280884</v>
+      </c>
+      <c r="E19">
+        <v>0.08750198555136403</v>
+      </c>
+      <c r="F19">
+        <v>0.08791210203804466</v>
+      </c>
+      <c r="G19">
+        <v>-0.0214330237888591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01961830766910922</v>
+        <v>0.01348403137156483</v>
       </c>
       <c r="C20">
-        <v>0.04585745577689366</v>
+        <v>0.04154401643003106</v>
       </c>
       <c r="D20">
-        <v>-0.01841198227368059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03781495975069518</v>
+      </c>
+      <c r="E20">
+        <v>0.06081807320762947</v>
+      </c>
+      <c r="F20">
+        <v>0.08520699904388494</v>
+      </c>
+      <c r="G20">
+        <v>0.005825012202474076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01452269220368928</v>
+        <v>0.009012358022085703</v>
       </c>
       <c r="C21">
-        <v>0.04809632666397416</v>
+        <v>0.04524768302038937</v>
       </c>
       <c r="D21">
-        <v>-0.0358713944035264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06678191936329995</v>
+      </c>
+      <c r="E21">
+        <v>0.07861924500397745</v>
+      </c>
+      <c r="F21">
+        <v>0.1336114941151541</v>
+      </c>
+      <c r="G21">
+        <v>0.008874638646490881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001895263068452128</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02325370795338985</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03594742638801361</v>
+      </c>
+      <c r="E22">
+        <v>0.02246268159204902</v>
+      </c>
+      <c r="F22">
+        <v>0.01902743849274022</v>
+      </c>
+      <c r="G22">
+        <v>0.0390426466181634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001963351842231416</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02337678964697671</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03562283821264137</v>
+      </c>
+      <c r="E23">
+        <v>0.02273167180104864</v>
+      </c>
+      <c r="F23">
+        <v>0.01888197842001884</v>
+      </c>
+      <c r="G23">
+        <v>0.03924160646956378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03430266236903582</v>
+        <v>0.03367087414091406</v>
       </c>
       <c r="C24">
-        <v>0.05094019537901907</v>
+        <v>0.05350198650233173</v>
       </c>
       <c r="D24">
-        <v>-0.005427220795674367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02603325500867037</v>
+      </c>
+      <c r="E24">
+        <v>0.02050607070131003</v>
+      </c>
+      <c r="F24">
+        <v>0.07781581245386521</v>
+      </c>
+      <c r="G24">
+        <v>0.009970298940689777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04927026269400341</v>
+        <v>0.04398059527683803</v>
       </c>
       <c r="C25">
-        <v>0.0596899884898358</v>
+        <v>0.05672471279089041</v>
       </c>
       <c r="D25">
-        <v>0.005244203362675629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02432914853809989</v>
+      </c>
+      <c r="E25">
+        <v>0.01478022303960806</v>
+      </c>
+      <c r="F25">
+        <v>0.0795178871872089</v>
+      </c>
+      <c r="G25">
+        <v>0.0269698296718248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01692306593694598</v>
+        <v>0.01381446834560449</v>
       </c>
       <c r="C26">
-        <v>0.01557180268138925</v>
+        <v>0.01732026412000318</v>
       </c>
       <c r="D26">
-        <v>0.0003499207597343502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02460882016949894</v>
+      </c>
+      <c r="E26">
+        <v>0.03249091002102078</v>
+      </c>
+      <c r="F26">
+        <v>0.071942719100137</v>
+      </c>
+      <c r="G26">
+        <v>-0.01341355886682218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0765877028675824</v>
+        <v>0.1332182836956532</v>
       </c>
       <c r="C28">
-        <v>-0.2323835647716328</v>
+        <v>-0.2455032622081025</v>
       </c>
       <c r="D28">
-        <v>7.352255557221033e-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01787875290841377</v>
+      </c>
+      <c r="E28">
+        <v>0.04885430319909811</v>
+      </c>
+      <c r="F28">
+        <v>0.05525472094936472</v>
+      </c>
+      <c r="G28">
+        <v>0.02252824030984028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01112035339715457</v>
+        <v>0.005939040085240673</v>
       </c>
       <c r="C29">
-        <v>0.0282241838253508</v>
+        <v>0.02804266276338411</v>
       </c>
       <c r="D29">
-        <v>0.01860543971264419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01930889797126458</v>
+      </c>
+      <c r="E29">
+        <v>0.03203438843717522</v>
+      </c>
+      <c r="F29">
+        <v>0.08930906827754366</v>
+      </c>
+      <c r="G29">
+        <v>0.006110371991678396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05573407524224639</v>
+        <v>0.04221777489759816</v>
       </c>
       <c r="C30">
-        <v>0.05865750334990317</v>
+        <v>0.06523739346965425</v>
       </c>
       <c r="D30">
-        <v>-0.06105575560768533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1065545427745859</v>
+      </c>
+      <c r="E30">
+        <v>0.04978802007225758</v>
+      </c>
+      <c r="F30">
+        <v>0.1014217705845777</v>
+      </c>
+      <c r="G30">
+        <v>-0.01258254609894409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05533869402135815</v>
+        <v>0.05478133737497218</v>
       </c>
       <c r="C31">
-        <v>0.03412101506610678</v>
+        <v>0.05511593063968517</v>
       </c>
       <c r="D31">
-        <v>0.02183053390673451</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01172372751154785</v>
+      </c>
+      <c r="E31">
+        <v>0.05110208661344809</v>
+      </c>
+      <c r="F31">
+        <v>0.07803418362854328</v>
+      </c>
+      <c r="G31">
+        <v>0.04887973551655838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001709557903570918</v>
+        <v>0.004997119966292892</v>
       </c>
       <c r="C32">
-        <v>0.0446225459515093</v>
+        <v>0.03389595105167494</v>
       </c>
       <c r="D32">
-        <v>-0.03206407895710974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04994939655375668</v>
+      </c>
+      <c r="E32">
+        <v>0.02878722118065448</v>
+      </c>
+      <c r="F32">
+        <v>0.07311738029440504</v>
+      </c>
+      <c r="G32">
+        <v>-0.009802456221211045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0312879196725306</v>
+        <v>0.02472715239436682</v>
       </c>
       <c r="C33">
-        <v>0.06209607019454831</v>
+        <v>0.05583042366769132</v>
       </c>
       <c r="D33">
-        <v>-0.03858735564722206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07743269346537171</v>
+      </c>
+      <c r="E33">
+        <v>0.05867760953804407</v>
+      </c>
+      <c r="F33">
+        <v>0.1250208965298945</v>
+      </c>
+      <c r="G33">
+        <v>0.02212433541509068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04739463307392214</v>
+        <v>0.04125617457695047</v>
       </c>
       <c r="C34">
-        <v>0.06431574538442505</v>
+        <v>0.0638289942679716</v>
       </c>
       <c r="D34">
-        <v>-0.003832754718888534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03340682902268988</v>
+      </c>
+      <c r="E34">
+        <v>-0.002979431824759105</v>
+      </c>
+      <c r="F34">
+        <v>0.0761651267409177</v>
+      </c>
+      <c r="G34">
+        <v>0.01188265080585614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01411390233667284</v>
+        <v>0.01300839002492416</v>
       </c>
       <c r="C36">
-        <v>0.01646305930667857</v>
+        <v>0.01293675264402535</v>
       </c>
       <c r="D36">
-        <v>0.001529569858929941</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0261987170472622</v>
+      </c>
+      <c r="E36">
+        <v>0.03837808761242958</v>
+      </c>
+      <c r="F36">
+        <v>0.07938393170065457</v>
+      </c>
+      <c r="G36">
+        <v>0.01020624786983167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03178253151614781</v>
+        <v>0.02452356163762646</v>
       </c>
       <c r="C38">
-        <v>0.02751695434220501</v>
+        <v>0.02497159404870115</v>
       </c>
       <c r="D38">
-        <v>0.003897600884923988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02494464800969671</v>
+      </c>
+      <c r="E38">
+        <v>0.03697378882431822</v>
+      </c>
+      <c r="F38">
+        <v>0.0679562729289913</v>
+      </c>
+      <c r="G38">
+        <v>0.005509654763715215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04715568775112226</v>
+        <v>0.03961499126129583</v>
       </c>
       <c r="C39">
-        <v>0.07255562145390727</v>
+        <v>0.06854796313749659</v>
       </c>
       <c r="D39">
-        <v>-0.02150567929082145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0518100644580364</v>
+      </c>
+      <c r="E39">
+        <v>0.02303456793465487</v>
+      </c>
+      <c r="F39">
+        <v>0.09052469115524173</v>
+      </c>
+      <c r="G39">
+        <v>-0.01327565923665176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01769587094611258</v>
+        <v>0.01559495524161088</v>
       </c>
       <c r="C40">
-        <v>0.04000177092485251</v>
+        <v>0.04080597882414624</v>
       </c>
       <c r="D40">
-        <v>-0.03474494694969167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03726831093691478</v>
+      </c>
+      <c r="E40">
+        <v>0.07681974310657314</v>
+      </c>
+      <c r="F40">
+        <v>0.0796075372123773</v>
+      </c>
+      <c r="G40">
+        <v>0.04416905663344959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0165902475378153</v>
+        <v>0.01742613169438836</v>
       </c>
       <c r="C41">
-        <v>0.01218598346293698</v>
+        <v>0.006756122449198052</v>
       </c>
       <c r="D41">
-        <v>0.0029839899332737</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01397445333251038</v>
+      </c>
+      <c r="E41">
+        <v>0.04166089989251748</v>
+      </c>
+      <c r="F41">
+        <v>0.06923637189169007</v>
+      </c>
+      <c r="G41">
+        <v>0.003421227648869903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0009417391646081826</v>
+        <v>0.0007589017046440396</v>
       </c>
       <c r="C42">
-        <v>0.007519947879024675</v>
+        <v>0.004149361264400683</v>
       </c>
       <c r="D42">
-        <v>-0.005139701157906368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0007759905746255264</v>
+      </c>
+      <c r="E42">
+        <v>0.006127394549997509</v>
+      </c>
+      <c r="F42">
+        <v>-0.006538313084971757</v>
+      </c>
+      <c r="G42">
+        <v>-0.0009453653234265503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03701252382735481</v>
+        <v>0.02869462719949777</v>
       </c>
       <c r="C43">
-        <v>0.02579651727150037</v>
+        <v>0.02190336328629201</v>
       </c>
       <c r="D43">
-        <v>-0.01519932632944572</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0383817365894057</v>
+      </c>
+      <c r="E43">
+        <v>0.0497236442120427</v>
+      </c>
+      <c r="F43">
+        <v>0.08130401114950472</v>
+      </c>
+      <c r="G43">
+        <v>0.02281488607186478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02225059583525205</v>
+        <v>0.01414520554565933</v>
       </c>
       <c r="C44">
-        <v>0.05661740404596725</v>
+        <v>0.05266863717666072</v>
       </c>
       <c r="D44">
-        <v>-0.01630038399634279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03875752707588277</v>
+      </c>
+      <c r="E44">
+        <v>0.06357171435000013</v>
+      </c>
+      <c r="F44">
+        <v>0.08401096799680716</v>
+      </c>
+      <c r="G44">
+        <v>-0.002786095109967757</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006709006040285985</v>
+        <v>0.007590014401352852</v>
       </c>
       <c r="C46">
-        <v>0.0230176770513562</v>
+        <v>0.02610510353558988</v>
       </c>
       <c r="D46">
-        <v>0.02365830028038248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009796941907043522</v>
+      </c>
+      <c r="E46">
+        <v>0.03809665809164706</v>
+      </c>
+      <c r="F46">
+        <v>0.1013161199526992</v>
+      </c>
+      <c r="G46">
+        <v>0.001357086224360044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08548141523531007</v>
+        <v>0.08717546006373797</v>
       </c>
       <c r="C47">
-        <v>0.06706623592335516</v>
+        <v>0.07994130911496239</v>
       </c>
       <c r="D47">
-        <v>0.01889507742688287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01876853945668436</v>
+      </c>
+      <c r="E47">
+        <v>0.05693197129606006</v>
+      </c>
+      <c r="F47">
+        <v>0.07694425824087829</v>
+      </c>
+      <c r="G47">
+        <v>0.05159342869784866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02053073928335039</v>
+        <v>0.01574631245465762</v>
       </c>
       <c r="C48">
-        <v>0.01426231041974527</v>
+        <v>0.01804977713356686</v>
       </c>
       <c r="D48">
-        <v>0.01152036349989809</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01570671722020818</v>
+      </c>
+      <c r="E48">
+        <v>0.04997852942232457</v>
+      </c>
+      <c r="F48">
+        <v>0.09381384737208791</v>
+      </c>
+      <c r="G48">
+        <v>0.009777038204198405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08601417279959536</v>
+        <v>0.07103751913772433</v>
       </c>
       <c r="C50">
-        <v>0.06811597113341684</v>
+        <v>0.07179617278210593</v>
       </c>
       <c r="D50">
-        <v>0.02862266688041432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007170979042081262</v>
+      </c>
+      <c r="E50">
+        <v>0.05578846541712593</v>
+      </c>
+      <c r="F50">
+        <v>0.06785265570737946</v>
+      </c>
+      <c r="G50">
+        <v>0.07329625939883798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01825372091243013</v>
+        <v>0.0108461740360479</v>
       </c>
       <c r="C51">
-        <v>0.04744320484123808</v>
+        <v>0.03425182703263322</v>
       </c>
       <c r="D51">
-        <v>-0.01493072662392255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04738129896438094</v>
+      </c>
+      <c r="E51">
+        <v>0.02691464785168208</v>
+      </c>
+      <c r="F51">
+        <v>0.08131297278105358</v>
+      </c>
+      <c r="G51">
+        <v>-0.01876717980246865</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08695571280362518</v>
+        <v>0.09409191573477207</v>
       </c>
       <c r="C53">
-        <v>0.07079533902776476</v>
+        <v>0.08596924455572677</v>
       </c>
       <c r="D53">
-        <v>0.03473176955268143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04126482444687346</v>
+      </c>
+      <c r="E53">
+        <v>0.05375547433830086</v>
+      </c>
+      <c r="F53">
+        <v>0.08646604501820289</v>
+      </c>
+      <c r="G53">
+        <v>0.06380043546567685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03427166808818091</v>
+        <v>0.02816553420343941</v>
       </c>
       <c r="C54">
-        <v>0.02344032170290044</v>
+        <v>0.02691666499256531</v>
       </c>
       <c r="D54">
-        <v>-0.0009199773774171324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03027211995500146</v>
+      </c>
+      <c r="E54">
+        <v>0.04568717327849001</v>
+      </c>
+      <c r="F54">
+        <v>0.0945031685458799</v>
+      </c>
+      <c r="G54">
+        <v>0.00661294383168714</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0784426772319432</v>
+        <v>0.08547110019318761</v>
       </c>
       <c r="C55">
-        <v>0.05574290368185292</v>
+        <v>0.06971134571368158</v>
       </c>
       <c r="D55">
-        <v>0.03938505053158096</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04817406260542467</v>
+      </c>
+      <c r="E55">
+        <v>0.04443224812354788</v>
+      </c>
+      <c r="F55">
+        <v>0.0605408966461011</v>
+      </c>
+      <c r="G55">
+        <v>0.05211298087730365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1518696967510906</v>
+        <v>0.147044251506993</v>
       </c>
       <c r="C56">
-        <v>0.08557443416417802</v>
+        <v>0.1034553423779899</v>
       </c>
       <c r="D56">
-        <v>0.04389056529903769</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05182929292493665</v>
+      </c>
+      <c r="E56">
+        <v>0.04678639926699508</v>
+      </c>
+      <c r="F56">
+        <v>0.04694063255292102</v>
+      </c>
+      <c r="G56">
+        <v>0.05964628179666594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001897094324469396</v>
+        <v>0.0008770382540015674</v>
       </c>
       <c r="C57">
-        <v>0.002520130575230674</v>
+        <v>0.001644919043473191</v>
       </c>
       <c r="D57">
-        <v>-0.02000323177142341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01504037259776261</v>
+      </c>
+      <c r="E57">
+        <v>0.009837308388378102</v>
+      </c>
+      <c r="F57">
+        <v>0.007272598375990392</v>
+      </c>
+      <c r="G57">
+        <v>0.005047826054416351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.07072519339462223</v>
+        <v>0.02846945626936485</v>
       </c>
       <c r="C58">
-        <v>0.02820685364390123</v>
+        <v>0.0409459379130279</v>
       </c>
       <c r="D58">
-        <v>-0.8611060809877439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4518107861491863</v>
+      </c>
+      <c r="E58">
+        <v>0.69341649081333</v>
+      </c>
+      <c r="F58">
+        <v>-0.4770315313418673</v>
+      </c>
+      <c r="G58">
+        <v>-0.06138529757938235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1253086999958366</v>
+        <v>0.1438991555098501</v>
       </c>
       <c r="C59">
-        <v>-0.2060869690797361</v>
+        <v>-0.1869548565456302</v>
       </c>
       <c r="D59">
-        <v>-0.02199803387290566</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03307875914280144</v>
+      </c>
+      <c r="E59">
+        <v>0.02964874986774841</v>
+      </c>
+      <c r="F59">
+        <v>0.02273816492421943</v>
+      </c>
+      <c r="G59">
+        <v>-0.02859632462348491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3144294797398083</v>
+        <v>0.2836861749495215</v>
       </c>
       <c r="C60">
-        <v>0.0707994285024004</v>
+        <v>0.09651099247258718</v>
       </c>
       <c r="D60">
-        <v>-0.0545119320884806</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2133502865191486</v>
+      </c>
+      <c r="E60">
+        <v>-0.2670206459619096</v>
+      </c>
+      <c r="F60">
+        <v>-0.1086258590746492</v>
+      </c>
+      <c r="G60">
+        <v>0.04421607878711174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04392269299215855</v>
+        <v>0.04099362196374459</v>
       </c>
       <c r="C61">
-        <v>0.0635163354016744</v>
+        <v>0.0621158162121609</v>
       </c>
       <c r="D61">
-        <v>-0.01085035564916947</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04427158286489554</v>
+      </c>
+      <c r="E61">
+        <v>0.02630136865765795</v>
+      </c>
+      <c r="F61">
+        <v>0.08164556538873169</v>
+      </c>
+      <c r="G61">
+        <v>0.01283452500847208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01741505985666007</v>
+        <v>0.01514950411689684</v>
       </c>
       <c r="C63">
-        <v>0.03569252103736809</v>
+        <v>0.03287148860530454</v>
       </c>
       <c r="D63">
-        <v>0.005058597788427256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02173432798325569</v>
+      </c>
+      <c r="E63">
+        <v>0.04116569200890906</v>
+      </c>
+      <c r="F63">
+        <v>0.07457260004095552</v>
+      </c>
+      <c r="G63">
+        <v>0.02878251973936587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05168751265301196</v>
+        <v>0.05566279486840143</v>
       </c>
       <c r="C64">
-        <v>0.03845506668437288</v>
+        <v>0.05437175326792981</v>
       </c>
       <c r="D64">
-        <v>0.008675228431827947</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005259134459863792</v>
+      </c>
+      <c r="E64">
+        <v>0.02258280656752931</v>
+      </c>
+      <c r="F64">
+        <v>0.08483416924003968</v>
+      </c>
+      <c r="G64">
+        <v>0.01056991795000904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09403817076440438</v>
+        <v>0.06935802262355924</v>
       </c>
       <c r="C65">
-        <v>0.02453068387545436</v>
+        <v>0.03226764534382776</v>
       </c>
       <c r="D65">
-        <v>-0.04255004102983887</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08549450383395645</v>
+      </c>
+      <c r="E65">
+        <v>0.03651748494489335</v>
+      </c>
+      <c r="F65">
+        <v>0.01628560978068562</v>
+      </c>
+      <c r="G65">
+        <v>0.001531449425014129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06753812371370015</v>
+        <v>0.05250092507400587</v>
       </c>
       <c r="C66">
-        <v>0.1010667236128551</v>
+        <v>0.09056119755346011</v>
       </c>
       <c r="D66">
-        <v>-0.03720028427483809</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07912007324428964</v>
+      </c>
+      <c r="E66">
+        <v>0.02848425639794912</v>
+      </c>
+      <c r="F66">
+        <v>0.09204187833152412</v>
+      </c>
+      <c r="G66">
+        <v>0.0039154192801765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05322537144348519</v>
+        <v>0.04658905351026763</v>
       </c>
       <c r="C67">
-        <v>0.03106271130876394</v>
+        <v>0.03057153918791169</v>
       </c>
       <c r="D67">
-        <v>0.007787771135105326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01157397105787069</v>
+      </c>
+      <c r="E67">
+        <v>0.01884382375621629</v>
+      </c>
+      <c r="F67">
+        <v>0.05375199476579583</v>
+      </c>
+      <c r="G67">
+        <v>0.01212878849750103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1063104362462663</v>
+        <v>0.1491314017518943</v>
       </c>
       <c r="C68">
-        <v>-0.2934632841169771</v>
+        <v>-0.2525274649748609</v>
       </c>
       <c r="D68">
-        <v>0.003406256273191689</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01821464258640562</v>
+      </c>
+      <c r="E68">
+        <v>0.04282190076575589</v>
+      </c>
+      <c r="F68">
+        <v>0.01521637826184886</v>
+      </c>
+      <c r="G68">
+        <v>0.01072400222847402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09264853727842935</v>
+        <v>0.08724471984263772</v>
       </c>
       <c r="C69">
-        <v>0.06595628477006205</v>
+        <v>0.0853515329326832</v>
       </c>
       <c r="D69">
-        <v>0.04177449798272222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01252006537584001</v>
+      </c>
+      <c r="E69">
+        <v>0.03450921834770508</v>
+      </c>
+      <c r="F69">
+        <v>0.09581272843250387</v>
+      </c>
+      <c r="G69">
+        <v>0.02925694966881515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1029191990224786</v>
+        <v>0.1413225673489821</v>
       </c>
       <c r="C71">
-        <v>-0.2515695668965788</v>
+        <v>-0.2338150402985996</v>
       </c>
       <c r="D71">
-        <v>-0.02710178076327992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01478311199789571</v>
+      </c>
+      <c r="E71">
+        <v>0.0661231663660535</v>
+      </c>
+      <c r="F71">
+        <v>0.05455410747093388</v>
+      </c>
+      <c r="G71">
+        <v>0.03455331740388193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09021402404055373</v>
+        <v>0.09718574671083756</v>
       </c>
       <c r="C72">
-        <v>0.04591080167105052</v>
+        <v>0.05538795527729885</v>
       </c>
       <c r="D72">
-        <v>0.00630846754752428</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0218490773539643</v>
+      </c>
+      <c r="E72">
+        <v>0.01359142460199428</v>
+      </c>
+      <c r="F72">
+        <v>0.07797008136447624</v>
+      </c>
+      <c r="G72">
+        <v>0.02872836675761412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4229638574247542</v>
+        <v>0.3471647783458561</v>
       </c>
       <c r="C73">
-        <v>0.0347193199186684</v>
+        <v>0.07734806050246174</v>
       </c>
       <c r="D73">
-        <v>-0.205979446714336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4552316159502848</v>
+      </c>
+      <c r="E73">
+        <v>-0.4719541182475681</v>
+      </c>
+      <c r="F73">
+        <v>-0.2803702293934331</v>
+      </c>
+      <c r="G73">
+        <v>0.09844333305514051</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1163930507084495</v>
+        <v>0.1118608434202652</v>
       </c>
       <c r="C74">
-        <v>0.09824241477808454</v>
+        <v>0.09892234530065484</v>
       </c>
       <c r="D74">
-        <v>0.01842134990266395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03187218724373354</v>
+      </c>
+      <c r="E74">
+        <v>0.0638533986636195</v>
+      </c>
+      <c r="F74">
+        <v>0.04983922325562396</v>
+      </c>
+      <c r="G74">
+        <v>0.07278073028791097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2518053887986007</v>
+        <v>0.2578962493829729</v>
       </c>
       <c r="C75">
-        <v>0.1038640775203001</v>
+        <v>0.1315331351401504</v>
       </c>
       <c r="D75">
-        <v>0.0703575778781315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1305262415637048</v>
+      </c>
+      <c r="E75">
+        <v>0.07085281034824337</v>
+      </c>
+      <c r="F75">
+        <v>0.01558908445539874</v>
+      </c>
+      <c r="G75">
+        <v>0.07685901773984845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1172085700588827</v>
+        <v>0.1289835644852562</v>
       </c>
       <c r="C76">
-        <v>0.08839185040259159</v>
+        <v>0.1003744249659066</v>
       </c>
       <c r="D76">
-        <v>0.03479352969112745</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05906172359208974</v>
+      </c>
+      <c r="E76">
+        <v>0.06828786052069635</v>
+      </c>
+      <c r="F76">
+        <v>0.06797802943021973</v>
+      </c>
+      <c r="G76">
+        <v>0.06264738287586975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08000713835892634</v>
+        <v>0.06237086460932127</v>
       </c>
       <c r="C77">
-        <v>0.05265090244891409</v>
+        <v>0.07026994729012297</v>
       </c>
       <c r="D77">
-        <v>-0.05450445594424572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06339522430457975</v>
+      </c>
+      <c r="E77">
+        <v>0.0731301774667277</v>
+      </c>
+      <c r="F77">
+        <v>0.1220638325952733</v>
+      </c>
+      <c r="G77">
+        <v>-0.135947006153697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05128161916694789</v>
+        <v>0.04365820575354502</v>
       </c>
       <c r="C78">
-        <v>0.04031165060707339</v>
+        <v>0.05623539562752747</v>
       </c>
       <c r="D78">
-        <v>-0.01864893760363009</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07115873521132804</v>
+      </c>
+      <c r="E78">
+        <v>0.03012683723627937</v>
+      </c>
+      <c r="F78">
+        <v>0.1024057333516853</v>
+      </c>
+      <c r="G78">
+        <v>0.005525258100677005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02544618534910003</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03759813033395987</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06022742303998638</v>
+      </c>
+      <c r="E79">
+        <v>0.05044043515032957</v>
+      </c>
+      <c r="F79">
+        <v>0.0416693705717189</v>
+      </c>
+      <c r="G79">
+        <v>0.06716727150394679</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04552284362459347</v>
+        <v>0.03494656800693542</v>
       </c>
       <c r="C80">
-        <v>0.0501741033282573</v>
+        <v>0.05547870404562293</v>
       </c>
       <c r="D80">
-        <v>-0.03057478244785191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04500544797713925</v>
+      </c>
+      <c r="E80">
+        <v>0.01208008397032038</v>
+      </c>
+      <c r="F80">
+        <v>0.03708937060819395</v>
+      </c>
+      <c r="G80">
+        <v>-0.04625476951844229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1418193011829847</v>
+        <v>0.1411586172828378</v>
       </c>
       <c r="C81">
-        <v>0.07077132364320499</v>
+        <v>0.09517172850217503</v>
       </c>
       <c r="D81">
-        <v>0.04238712017476272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09879132004768047</v>
+      </c>
+      <c r="E81">
+        <v>0.08070057296054491</v>
+      </c>
+      <c r="F81">
+        <v>0.01444557046068249</v>
+      </c>
+      <c r="G81">
+        <v>0.05586787486699826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1578435196196961</v>
+        <v>0.2016785909358111</v>
       </c>
       <c r="C82">
-        <v>0.0539296988214197</v>
+        <v>0.1340471596394449</v>
       </c>
       <c r="D82">
-        <v>0.1429465168261224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2338331492303987</v>
+      </c>
+      <c r="E82">
+        <v>0.00546447560651045</v>
+      </c>
+      <c r="F82">
+        <v>0.08495618478529381</v>
+      </c>
+      <c r="G82">
+        <v>0.04385068059171218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0367986640110218</v>
+        <v>0.02795046859334432</v>
       </c>
       <c r="C83">
-        <v>0.02116982374375393</v>
+        <v>0.040937219890158</v>
       </c>
       <c r="D83">
-        <v>-0.02758885783888983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03305176596674669</v>
+      </c>
+      <c r="E83">
+        <v>0.01184080228948053</v>
+      </c>
+      <c r="F83">
+        <v>0.04772419991757244</v>
+      </c>
+      <c r="G83">
+        <v>-0.02016157944624108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2211776565620993</v>
+        <v>0.2050508601454563</v>
       </c>
       <c r="C85">
-        <v>0.1004175491142857</v>
+        <v>0.1187064830750468</v>
       </c>
       <c r="D85">
-        <v>0.09842336227443006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09894537742687347</v>
+      </c>
+      <c r="E85">
+        <v>0.003904437679826573</v>
+      </c>
+      <c r="F85">
+        <v>-0.02254648330323001</v>
+      </c>
+      <c r="G85">
+        <v>0.1290002948904166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01371387297862077</v>
+        <v>0.01139666366280728</v>
       </c>
       <c r="C86">
-        <v>0.03580841110957126</v>
+        <v>0.03166016632570841</v>
       </c>
       <c r="D86">
-        <v>-0.04067477321932107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06895895113897624</v>
+      </c>
+      <c r="E86">
+        <v>0.0507370639719588</v>
+      </c>
+      <c r="F86">
+        <v>0.1369165590760299</v>
+      </c>
+      <c r="G86">
+        <v>-0.00865348353772134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02424198239097906</v>
+        <v>0.02148613193175122</v>
       </c>
       <c r="C87">
-        <v>0.01919717815687014</v>
+        <v>0.02239809033825059</v>
       </c>
       <c r="D87">
-        <v>-0.09503823088857276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09049940215348153</v>
+      </c>
+      <c r="E87">
+        <v>0.096561498780683</v>
+      </c>
+      <c r="F87">
+        <v>0.08985627101045643</v>
+      </c>
+      <c r="G87">
+        <v>-0.03627842808218956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1069208795765929</v>
+        <v>0.09195323377314717</v>
       </c>
       <c r="C88">
-        <v>0.07016067751770787</v>
+        <v>0.06282368467025164</v>
       </c>
       <c r="D88">
-        <v>0.02307082287790579</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.007720747376542005</v>
+      </c>
+      <c r="E88">
+        <v>0.0368844602604426</v>
+      </c>
+      <c r="F88">
+        <v>0.0730805565834335</v>
+      </c>
+      <c r="G88">
+        <v>-0.02856837316750281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1654851821969489</v>
+        <v>0.2209274975164159</v>
       </c>
       <c r="C89">
-        <v>-0.3848837716427969</v>
+        <v>-0.3811490489798303</v>
       </c>
       <c r="D89">
-        <v>0.02510884953750693</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01304812545991155</v>
+      </c>
+      <c r="E89">
+        <v>0.03990840145106508</v>
+      </c>
+      <c r="F89">
+        <v>0.09574390004418787</v>
+      </c>
+      <c r="G89">
+        <v>-0.06288078866540552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1603447549682819</v>
+        <v>0.1993384010107699</v>
       </c>
       <c r="C90">
-        <v>-0.3532436904814296</v>
+        <v>-0.3158564362724754</v>
       </c>
       <c r="D90">
-        <v>0.01695621408271477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01349902018551643</v>
+      </c>
+      <c r="E90">
+        <v>0.06789271187871099</v>
+      </c>
+      <c r="F90">
+        <v>0.04466832901580797</v>
+      </c>
+      <c r="G90">
+        <v>-0.01103775612446962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1933635765919021</v>
+        <v>0.1870353439831356</v>
       </c>
       <c r="C91">
-        <v>0.1135069017944256</v>
+        <v>0.1386169938940271</v>
       </c>
       <c r="D91">
-        <v>0.06756366558289452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1082650885900238</v>
+      </c>
+      <c r="E91">
+        <v>0.06130535586544779</v>
+      </c>
+      <c r="F91">
+        <v>0.0351148544115772</v>
+      </c>
+      <c r="G91">
+        <v>0.06051239687269237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1560153498519083</v>
+        <v>0.1810370517699383</v>
       </c>
       <c r="C92">
-        <v>-0.2925827710452127</v>
+        <v>-0.2841626321080602</v>
       </c>
       <c r="D92">
-        <v>0.0108181230737397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.001820491057752224</v>
+      </c>
+      <c r="E92">
+        <v>0.0692768343252171</v>
+      </c>
+      <c r="F92">
+        <v>0.08271137973532647</v>
+      </c>
+      <c r="G92">
+        <v>-0.007504044016622008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1832318900844549</v>
+        <v>0.2233705621506206</v>
       </c>
       <c r="C93">
-        <v>-0.3479222071512924</v>
+        <v>-0.320166876886969</v>
       </c>
       <c r="D93">
-        <v>0.007733686345248513</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0007411142003667269</v>
+      </c>
+      <c r="E93">
+        <v>0.05362648728555561</v>
+      </c>
+      <c r="F93">
+        <v>0.04025822591449067</v>
+      </c>
+      <c r="G93">
+        <v>0.02718000184018101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.337935983102794</v>
+        <v>0.343175728766159</v>
       </c>
       <c r="C94">
-        <v>0.130477047187943</v>
+        <v>0.1823934037428791</v>
       </c>
       <c r="D94">
-        <v>0.310449086648211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4842367408472428</v>
+      </c>
+      <c r="E94">
+        <v>0.1082987062221625</v>
+      </c>
+      <c r="F94">
+        <v>-0.439420009430083</v>
+      </c>
+      <c r="G94">
+        <v>-0.3340997310614569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1112525274963424</v>
+        <v>0.08580359195434943</v>
       </c>
       <c r="C95">
-        <v>0.0692870573448483</v>
+        <v>0.06684091292283272</v>
       </c>
       <c r="D95">
-        <v>-0.0649001742994005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1622689516679507</v>
+      </c>
+      <c r="E95">
+        <v>-0.1201641247351214</v>
+      </c>
+      <c r="F95">
+        <v>0.2115618123476639</v>
+      </c>
+      <c r="G95">
+        <v>-0.8645490160288674</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1970160319491738</v>
+        <v>0.1876433434830859</v>
       </c>
       <c r="C98">
-        <v>0.0127525710043653</v>
+        <v>0.0429215880163592</v>
       </c>
       <c r="D98">
-        <v>-0.08304899250156619</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1834809909682528</v>
+      </c>
+      <c r="E98">
+        <v>-0.1513131991140506</v>
+      </c>
+      <c r="F98">
+        <v>-0.0433172446647735</v>
+      </c>
+      <c r="G98">
+        <v>0.101514063342736</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.0110448973256634</v>
+        <v>0.005986640628159461</v>
       </c>
       <c r="C101">
-        <v>0.02822738063629352</v>
+        <v>0.02779129858478624</v>
       </c>
       <c r="D101">
-        <v>0.01893014402738134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01879599094296071</v>
+      </c>
+      <c r="E101">
+        <v>0.03272318943448221</v>
+      </c>
+      <c r="F101">
+        <v>0.08910232102683453</v>
+      </c>
+      <c r="G101">
+        <v>0.005037012633000567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1241771577254207</v>
+        <v>0.1249125286330108</v>
       </c>
       <c r="C102">
-        <v>0.07054024395159234</v>
+        <v>0.09901882928348024</v>
       </c>
       <c r="D102">
-        <v>0.03310936960951336</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04954655632276501</v>
+      </c>
+      <c r="E102">
+        <v>-0.008412281471675465</v>
+      </c>
+      <c r="F102">
+        <v>0.03953659609202637</v>
+      </c>
+      <c r="G102">
+        <v>0.02340565354088945</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
